--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308AFA65-D3C6-43ED-ACF8-CD6D11B54518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A426B1C-429B-4CF9-9D5E-E305815198B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="12768" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -526,6 +526,24 @@
 X:補件
 D:刪除(僅限補件之資料刪除)</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualFilingDate</t>
+  </si>
+  <si>
+    <t>實際報送日期</t>
+  </si>
+  <si>
+    <t>Decimald</t>
+  </si>
+  <si>
+    <t>ActualFilingMark</t>
+  </si>
+  <si>
+    <t>實際報送記號</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2025,20 +2043,40 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="13">
+        <v>43</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="14">
+        <v>8</v>
+      </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="13">
+        <v>44</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="14">
+        <v>3</v>
+      </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
@@ -5,23 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A426B1C-429B-4CF9-9D5E-E305815198B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7155F284-0250-4FF4-A141-9E4658EF2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="12768" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -544,6 +554,14 @@
   </si>
   <si>
     <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>findkeyFilingDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ActualFilingDate= , AND ActualFilingMark= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1111,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -2574,11 +2592,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2663,6 +2681,17 @@
         <v>117</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
